--- a/code/代码分工.xlsx
+++ b/code/代码分工.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE47DF8-B586-4E6E-ACF9-DD959C4552EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1A4BE-394C-436C-8D2E-846F95BBC8BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,34 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类常量实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类函数实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏运行逻辑设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类设计及实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏运行函数实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,26 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地数据库实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器数据库连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器数据库实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可自制素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>素材制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材寻找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一级分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,34 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美工设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美工实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,7 +90,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分工</t>
+    <t>常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,34 +126,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴帅毅</t>
-  </si>
-  <si>
-    <t>吴帅毅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,39 +458,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,285 +501,250 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B20:B23"/>
+  <mergeCells count="24">
+    <mergeCell ref="F11:F23"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="E11:E23"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/代码分工.xlsx
+++ b/code/代码分工.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE47DF8-B586-4E6E-ACF9-DD959C4552EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA9F93-04F2-4232-ADB7-4EB1840B075B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,17 +547,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,6 +846,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A11:A23"/>
@@ -855,15 +865,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/代码分工.xlsx
+++ b/code/代码分工.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA9F93-04F2-4232-ADB7-4EB1840B075B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562585C-8A60-43B7-A2E0-BFE2E534FEA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,34 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类常量实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类函数实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏运行逻辑设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类设计及实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏运行函数实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,26 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地数据库实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器数据库连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务器数据库实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可自制素材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>素材制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材寻找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一级分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,34 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美工设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美工实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,7 +90,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分工</t>
+    <t>常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,38 +122,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴帅毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王仕杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴帅毅</t>
-  </si>
-  <si>
-    <t>吴帅毅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,13 +170,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:E23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,305 +475,298 @@
     <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="26">
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="F17:F23"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A11:A23"/>
@@ -865,6 +777,14 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E2:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
